--- a/Script/Dataframes/df_Diot.xlsx
+++ b/Script/Dataframes/df_Diot.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Archivo_Recibido</t>
+          <t>Archivo Recibido</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -696,11 +696,7 @@
           <t xml:space="preserve">JARH570121P36 </t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
           <t xml:space="preserve">Tamaño:1130 </t>
@@ -733,36 +729,12 @@
           <t>Diot</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\diot hector jauregui rios 14-02-23.pdf</t>
@@ -864,11 +836,7 @@
           <t xml:space="preserve">ZALM740419353 </t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
           <t xml:space="preserve">Tamaño:2250 </t>
@@ -906,11 +874,7 @@
           <t xml:space="preserve">IAMP661003NP2 </t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
           <t xml:space="preserve">Tamaño:1218 </t>
@@ -948,11 +912,7 @@
           <t xml:space="preserve">MOAR741018D36 </t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
           <t xml:space="preserve">Tamaño:5946 </t>

--- a/Script/Dataframes/df_Diot.xlsx
+++ b/Script/Dataframes/df_Diot.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Script/Dataframes/df_Diot.xlsx
+++ b/Script/Dataframes/df_Diot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,32 +488,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">AGR1606133D80DOTAAN1NCN2S18121.dec </t>
+          <t xml:space="preserve">AGR1606133D80DOTAAN1NCN5J14451.dec </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tamaño:1474 </t>
+          <t xml:space="preserve">Tamaño:1530 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">06/03/2023 </t>
+          <t xml:space="preserve">19/05/2023 </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">18:35:18 </t>
+          <t xml:space="preserve">09:42:49 </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">383452104 </t>
+          <t xml:space="preserve">387312635 </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\diot agrol MARZO 2023.pdf</t>
+          <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PDF\DIOT AGROL ABRIL 2023   L.pdf</t>
         </is>
       </c>
     </row>
@@ -525,37 +525,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">BOD1702215A0 </t>
+          <t xml:space="preserve">AGR1606133D8 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">BOD1702215A00DOTAAN1NCN2R22101.dec </t>
+          <t xml:space="preserve">AGR1606133D80DOTAAN1NCN2S18121.dec </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tamaño:3442 </t>
+          <t xml:space="preserve">Tamaño:1474 </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">28/02/2023 </t>
+          <t xml:space="preserve">06/03/2023 </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">23:04:18 </t>
+          <t xml:space="preserve">18:35:18 </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">383145045 </t>
+          <t xml:space="preserve">383452104 </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\diot bricks febrero 2023.pdf</t>
+          <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PDF\diot agrol MARZO 2023.pdf</t>
         </is>
       </c>
     </row>
@@ -567,37 +567,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAP990628715 </t>
+          <t xml:space="preserve">BOD1702215A0 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAP9906287150DOTAAN1NCN2401291.dec </t>
+          <t xml:space="preserve">BOD1702215A00DOTAAN1NCN2R22101.dec </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tamaño:1482 </t>
+          <t xml:space="preserve">Tamaño:3442 </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">15/02/2023 </t>
+          <t xml:space="preserve">28/02/2023 </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">16:45:04 </t>
+          <t xml:space="preserve">23:04:18 </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">382257225 </t>
+          <t xml:space="preserve">383145045 </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\diot cuadras asesores DICIEMBRE 2022.pdf</t>
+          <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PDF\diot bricks febrero 2023.pdf</t>
         </is>
       </c>
     </row>
@@ -609,37 +609,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">DES160421EU7 </t>
+          <t xml:space="preserve">BOD1702215A0 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">DES160421EU70DOTAAN1NCN2O15421.dec </t>
+          <t xml:space="preserve">BOD1702215A00DOTAAN1NCN5T16081.dec </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tamaño:2834 </t>
+          <t xml:space="preserve">Tamaño:2946 </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">27/02/2023 </t>
+          <t xml:space="preserve">30/05/2023 </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">09:55:45 </t>
+          <t xml:space="preserve">19:14:29 </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">382924957 </t>
+          <t xml:space="preserve">388083343 </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\diot desoflex 27-02-23.pdf</t>
+          <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PDF\DIOT BRICKS OBRAS Y DESARROLLO ABRIL 2023.pdf</t>
         </is>
       </c>
     </row>
@@ -651,37 +651,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">DLS1403063Z9 </t>
+          <t xml:space="preserve">CAP990628715 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">DLS1403063Z90DOTAAN1NCN2O22481.dec </t>
+          <t xml:space="preserve">CAP9906287150DOTAAN1NCN2401291.dec </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tamaño:1378 </t>
+          <t xml:space="preserve">Tamaño:1482 </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">28/02/2023 </t>
+          <t xml:space="preserve">15/02/2023 </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">16:42:07 </t>
+          <t xml:space="preserve">16:45:04 </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">383101606 </t>
+          <t xml:space="preserve">382257225 </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\diot diseños luna 28-02-23.pdf</t>
+          <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PDF\diot cuadras asesores DICIEMBRE 2022.pdf</t>
         </is>
       </c>
     </row>
@@ -693,33 +693,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">JARH570121P36 </t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t xml:space="preserve">DES160421EU7 </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DES160421EU70DOTAAN1NCN2O15421.dec </t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tamaño:1130 </t>
+          <t xml:space="preserve">Tamaño:2834 </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">28/02/2023 </t>
+          <t xml:space="preserve">27/02/2023 </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">16:28:11 </t>
+          <t xml:space="preserve">09:55:45 </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">383098681 </t>
+          <t xml:space="preserve">382924957 </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\diot hector jauregui rios  28-02-23.pdf</t>
+          <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PDF\diot desoflex 27-02-23.pdf</t>
         </is>
       </c>
     </row>
@@ -729,15 +733,39 @@
           <t>Diot</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DLS1403063Z9 </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DLS1403063Z90DOTAAN1NCN2O22481.dec </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tamaño:1378 </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/02/2023 </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16:42:07 </t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">383101606 </t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\diot hector jauregui rios 14-02-23.pdf</t>
+          <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PDF\diot diseños luna 28-02-23.pdf</t>
         </is>
       </c>
     </row>
@@ -749,37 +777,33 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">INT0901197U0 </t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">INT0901197U00DOTAAN1NCN3H23261.dec </t>
-        </is>
-      </c>
+          <t xml:space="preserve">JARH570121P36 </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tamaño:1354 </t>
+          <t xml:space="preserve">Tamaño:1130 </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">21/03/2023 </t>
+          <t xml:space="preserve">28/02/2023 </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">09:11:45 </t>
+          <t xml:space="preserve">16:28:11 </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">384026542 </t>
+          <t xml:space="preserve">383098681 </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DIOT INTEREXPORTA ENERO 2023.pdf</t>
+          <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PDF\diot hector jauregui rios  28-02-23.pdf</t>
         </is>
       </c>
     </row>
@@ -789,39 +813,15 @@
           <t>Diot</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">INT0901197U0 </t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">INT0901197U00DOTAAN1NCN4422551.dec </t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tamaño:1170 </t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">25/04/2023 </t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12:15:00 </t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">385804991 </t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DIOT INTEREXPORTA FEBRERO 2023.pdf</t>
+          <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PDF\diot hector jauregui rios 14-02-23.pdf</t>
         </is>
       </c>
     </row>
@@ -833,33 +833,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">ZALM740419353 </t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t xml:space="preserve">INT0901197U0 </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INT0901197U00DOTAAN1NCN3H23261.dec </t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tamaño:2250 </t>
+          <t xml:space="preserve">Tamaño:1354 </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">13/03/2023 </t>
+          <t xml:space="preserve">21/03/2023 </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">10:38:39 </t>
+          <t xml:space="preserve">09:11:45 </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">383699154 </t>
+          <t xml:space="preserve">384026542 </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\diot monica alejandra zarate losa 13-03-23.pdf</t>
+          <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PDF\DIOT INTEREXPORTA ENERO 2023.pdf</t>
         </is>
       </c>
     </row>
@@ -871,33 +875,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">IAMP661003NP2 </t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t xml:space="preserve">INT0901197U0 </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INT0901197U00DOTAAN1NCN4422551.dec </t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tamaño:1218 </t>
+          <t xml:space="preserve">Tamaño:1170 </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">28/02/2023 </t>
+          <t xml:space="preserve">25/04/2023 </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">16:37:13 </t>
+          <t xml:space="preserve">12:15:00 </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">383100589 </t>
+          <t xml:space="preserve">385804991 </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\diot pascual ibarra 28-02-23.pdf</t>
+          <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PDF\DIOT INTEREXPORTA FEBRERO 2023.pdf</t>
         </is>
       </c>
     </row>
@@ -909,33 +917,109 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">MOAR741018D36 </t>
+          <t xml:space="preserve">ZALM740419353 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
+          <t xml:space="preserve">Tamaño:2250 </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13/03/2023 </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10:38:39 </t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">383699154 </t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PDF\diot monica alejandra zarate losa 13-03-23.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Diot</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IAMP661003NP2 </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tamaño:1218 </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/02/2023 </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16:37:13 </t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">383100589 </t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PDF\diot pascual ibarra 28-02-23.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Diot</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOAR741018D36 </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
           <t xml:space="preserve">Tamaño:5946 </t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t xml:space="preserve">01/03/2023 </t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t xml:space="preserve">08:34:02 </t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t xml:space="preserve">383152149 </t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\diot rigoberto mora 01-03-23.pdf</t>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\PDF\diot rigoberto mora 01-03-23.pdf</t>
         </is>
       </c>
     </row>
